--- a/BiologAnalysis/output/A/rsol_WT_AsPM 1-.xlsx
+++ b/BiologAnalysis/output/A/rsol_WT_AsPM 1-.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>UW551 replicate 1</t>
   </si>
@@ -87,15 +87,6 @@
   </si>
   <si>
     <t>K60 replicate 3</t>
-  </si>
-  <si>
-    <t>ipo1609 replicate 2</t>
-  </si>
-  <si>
-    <t>ipo1609 replicate 1</t>
-  </si>
-  <si>
-    <t>ipo1609 replicate 3</t>
   </si>
   <si>
     <t>CFBP2957 replicate 1</t>
@@ -759,7 +750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL97"/>
+  <dimension ref="A1:AI97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,7 +758,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,135 +861,117 @@
       <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="B3" t="n">
         <v>6.2</v>
@@ -1076,45 +1049,36 @@
         <v>13.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1</v>
+        <v>16.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.6</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>16.4</v>
+        <v>18.4</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.9</v>
+        <v>10.7</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>9.1</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.4</v>
+        <v>13.8</v>
       </c>
       <c r="AI3" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="AL3" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1192,45 +1156,36 @@
         <v>1.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.7</v>
+        <v>105.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>102.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>80.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>105.7</v>
+        <v>141</v>
       </c>
       <c r="AE4" t="n">
-        <v>102.8</v>
+        <v>139</v>
       </c>
       <c r="AF4" t="n">
-        <v>80.7</v>
+        <v>140.7</v>
       </c>
       <c r="AG4" t="n">
-        <v>141</v>
+        <v>2.8</v>
       </c>
       <c r="AH4" t="n">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="AI4" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
         <v>272.8</v>
@@ -1308,45 +1263,36 @@
         <v>263.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>243.6</v>
+        <v>261.3</v>
       </c>
       <c r="AB5" t="n">
+        <v>230.9</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>257.7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="AF5" t="n">
         <v>267.4</v>
       </c>
-      <c r="AC5" t="n">
-        <v>266.7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>261.3</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>230.9</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>221.4</v>
-      </c>
       <c r="AG5" t="n">
-        <v>257.7</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>236.2</v>
+        <v>1.1</v>
       </c>
       <c r="AI5" t="n">
-        <v>267.4</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AL5" t="n">
         <v>6.9</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n">
         <v>290.4</v>
@@ -1424,45 +1370,36 @@
         <v>275.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>273.4</v>
+        <v>251.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>273.7</v>
+        <v>220.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>283.6</v>
+        <v>168</v>
       </c>
       <c r="AD6" t="n">
-        <v>251.6</v>
+        <v>260.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>220.6</v>
+        <v>273.2</v>
       </c>
       <c r="AF6" t="n">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="AG6" t="n">
-        <v>260.6</v>
+        <v>283.8</v>
       </c>
       <c r="AH6" t="n">
-        <v>273.2</v>
+        <v>238.7</v>
       </c>
       <c r="AI6" t="n">
-        <v>273</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>283.8</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>238.7</v>
-      </c>
-      <c r="AL6" t="n">
         <v>269.2</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1540,45 +1477,36 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>24.1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.5</v>
+        <v>40.9</v>
       </c>
       <c r="AH7" t="n">
-        <v>10.2</v>
+        <v>31.3</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="AL7" t="n">
         <v>38.6</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" t="n">
         <v>295.9</v>
@@ -1656,45 +1584,36 @@
         <v>270.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>269.5</v>
+        <v>270</v>
       </c>
       <c r="AB8" t="n">
-        <v>293.4</v>
+        <v>234.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>291.5</v>
+        <v>243.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>270</v>
+        <v>231.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>234.2</v>
+        <v>260.2</v>
       </c>
       <c r="AF8" t="n">
-        <v>243.2</v>
+        <v>310.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>231.8</v>
+        <v>282.2</v>
       </c>
       <c r="AH8" t="n">
-        <v>260.2</v>
+        <v>262</v>
       </c>
       <c r="AI8" t="n">
-        <v>310.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>282.2</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>262</v>
-      </c>
-      <c r="AL8" t="n">
         <v>293.7</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
         <v>285.2</v>
@@ -1772,45 +1691,36 @@
         <v>232</v>
       </c>
       <c r="AA9" t="n">
-        <v>210.1</v>
+        <v>33.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>220.8</v>
+        <v>33.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>258.4</v>
+        <v>28.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>33.4</v>
+        <v>263.1</v>
       </c>
       <c r="AE9" t="n">
-        <v>33.7</v>
+        <v>237.7</v>
       </c>
       <c r="AF9" t="n">
-        <v>28.1</v>
+        <v>256.8</v>
       </c>
       <c r="AG9" t="n">
-        <v>263.1</v>
+        <v>189.7</v>
       </c>
       <c r="AH9" t="n">
-        <v>237.7</v>
+        <v>149.1</v>
       </c>
       <c r="AI9" t="n">
-        <v>256.8</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>189.7</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="AL9" t="n">
         <v>201.7</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
         <v>21.2</v>
@@ -1888,45 +1798,36 @@
         <v>8.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>66.2</v>
+        <v>4.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>71.40000000000001</v>
+        <v>4</v>
       </c>
       <c r="AC10" t="n">
-        <v>91.2</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>4.3</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="n">
-        <v>4</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="AG10" t="n">
-        <v>78</v>
+        <v>9.9</v>
       </c>
       <c r="AH10" t="n">
-        <v>66.40000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AL10" t="n">
         <v>10.6</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -2004,45 +1905,36 @@
         <v>23.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>9.800000000000001</v>
+        <v>286</v>
       </c>
       <c r="AB11" t="n">
-        <v>148</v>
+        <v>289.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>278.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>286</v>
+        <v>273.7</v>
       </c>
       <c r="AE11" t="n">
-        <v>289.7</v>
+        <v>283.6</v>
       </c>
       <c r="AF11" t="n">
-        <v>278.5</v>
+        <v>281.9</v>
       </c>
       <c r="AG11" t="n">
-        <v>273.7</v>
+        <v>5.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>283.6</v>
+        <v>2.8</v>
       </c>
       <c r="AI11" t="n">
-        <v>281.9</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AL11" t="n">
         <v>6.7</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" t="n">
         <v>1.7</v>
@@ -2120,45 +2012,36 @@
         <v>18.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>10.5</v>
+        <v>1.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.8</v>
+        <v>11.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.4</v>
+        <v>16.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>11.3</v>
+        <v>6.9</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.6</v>
+        <v>19.7</v>
       </c>
       <c r="AG12" t="n">
-        <v>16.1</v>
+        <v>12.4</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.9</v>
+        <v>3.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AL12" t="n">
         <v>13.4</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" t="n">
         <v>15.5</v>
@@ -2236,45 +2119,36 @@
         <v>23.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>14.3</v>
+        <v>16</v>
       </c>
       <c r="AB13" t="n">
-        <v>51.3</v>
+        <v>18.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>145.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>18.6</v>
+        <v>200.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.300000000000001</v>
+        <v>119.3</v>
       </c>
       <c r="AG13" t="n">
-        <v>145.6</v>
+        <v>9.9</v>
       </c>
       <c r="AH13" t="n">
-        <v>200.5</v>
+        <v>12.3</v>
       </c>
       <c r="AI13" t="n">
-        <v>119.3</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="AL13" t="n">
         <v>10.2</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" t="n">
         <v>0.4</v>
@@ -2352,45 +2226,36 @@
         <v>2.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.8</v>
+        <v>0.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.9</v>
+        <v>34.4</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>28.3</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="AG14" t="n">
-        <v>34.4</v>
+        <v>10.1</v>
       </c>
       <c r="AH14" t="n">
-        <v>28.3</v>
+        <v>4.6</v>
       </c>
       <c r="AI14" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AL14" t="n">
         <v>9.300000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -2477,36 +2342,27 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.800000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" t="n">
         <v>260</v>
@@ -2584,45 +2440,36 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>228.1</v>
+        <v>120.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>260</v>
+        <v>99.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>260.7</v>
+        <v>88.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>120.4</v>
+        <v>225.3</v>
       </c>
       <c r="AE16" t="n">
-        <v>99.3</v>
+        <v>221.2</v>
       </c>
       <c r="AF16" t="n">
-        <v>88.5</v>
+        <v>202.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>225.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>221.2</v>
+        <v>37.4</v>
       </c>
       <c r="AI16" t="n">
-        <v>202.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="AL16" t="n">
         <v>84.5</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -2709,36 +2556,27 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AG17" t="n">
-        <v>8.199999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
         <v>8.699999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" t="n">
         <v>277.8</v>
@@ -2816,45 +2654,36 @@
         <v>281.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>262.7</v>
+        <v>286.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>290.1</v>
+        <v>282.1</v>
       </c>
       <c r="AC18" t="n">
-        <v>289.1</v>
+        <v>258.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>286.6</v>
+        <v>313.7</v>
       </c>
       <c r="AE18" t="n">
-        <v>282.1</v>
+        <v>295.4</v>
       </c>
       <c r="AF18" t="n">
-        <v>258.5</v>
+        <v>295.7</v>
       </c>
       <c r="AG18" t="n">
-        <v>313.7</v>
+        <v>7.9</v>
       </c>
       <c r="AH18" t="n">
-        <v>295.4</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>295.7</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
         <v>3.7</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" t="n">
         <v>270.1</v>
@@ -2932,45 +2761,36 @@
         <v>5</v>
       </c>
       <c r="AA19" t="n">
-        <v>240</v>
+        <v>169.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>289.5</v>
+        <v>155.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>262.7</v>
+        <v>133.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>169.4</v>
+        <v>196.8</v>
       </c>
       <c r="AE19" t="n">
-        <v>155.1</v>
+        <v>217.4</v>
       </c>
       <c r="AF19" t="n">
-        <v>133.2</v>
+        <v>189.4</v>
       </c>
       <c r="AG19" t="n">
-        <v>196.8</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>217.4</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>189.4</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -3074,19 +2894,10 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="n">
         <v>7.4</v>
@@ -3164,45 +2975,36 @@
         <v>0.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>4.8</v>
+        <v>21.1</v>
       </c>
       <c r="AE21" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>21.1</v>
+        <v>14.1</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AL21" t="n">
         <v>11.8</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" t="n">
         <v>54.4</v>
@@ -3280,45 +3082,36 @@
         <v>2.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>113.1</v>
+        <v>73.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>157.5</v>
+        <v>46</v>
       </c>
       <c r="AC22" t="n">
-        <v>123.2</v>
+        <v>49.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>73.3</v>
+        <v>23.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>46</v>
+        <v>19.7</v>
       </c>
       <c r="AF22" t="n">
-        <v>49.7</v>
+        <v>18.1</v>
       </c>
       <c r="AG22" t="n">
-        <v>23.5</v>
+        <v>39.6</v>
       </c>
       <c r="AH22" t="n">
-        <v>19.7</v>
+        <v>29.3</v>
       </c>
       <c r="AI22" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="AL22" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -3405,36 +3198,27 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>16.1</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" t="n">
         <v>0.7</v>
@@ -3512,45 +3296,36 @@
         <v>4.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.4</v>
+        <v>11.3</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.3</v>
+        <v>6.6</v>
       </c>
       <c r="AH24" t="n">
-        <v>11.5</v>
+        <v>3.7</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AL24" t="n">
         <v>6.9</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" t="n">
         <v>283.3</v>
@@ -3628,45 +3403,36 @@
         <v>254.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>271</v>
+        <v>289.8</v>
       </c>
       <c r="AB25" t="n">
+        <v>258.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>255.2</v>
+      </c>
+      <c r="AD25" t="n">
         <v>291.7</v>
       </c>
-      <c r="AC25" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>289.8</v>
-      </c>
       <c r="AE25" t="n">
-        <v>258.5</v>
+        <v>275.8</v>
       </c>
       <c r="AF25" t="n">
-        <v>255.2</v>
+        <v>283.4</v>
       </c>
       <c r="AG25" t="n">
-        <v>291.7</v>
+        <v>268.7</v>
       </c>
       <c r="AH25" t="n">
-        <v>275.8</v>
+        <v>268.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>283.4</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>268.7</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="AL25" t="n">
         <v>301.8</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:35">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" t="n">
         <v>1.7</v>
@@ -3744,45 +3510,36 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>3.6</v>
+        <v>13.2</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.2</v>
+        <v>15.8</v>
       </c>
       <c r="AH26" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="AI26" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AL26" t="n">
         <v>16.9</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -3869,36 +3626,27 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG27" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:35">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B28" t="n">
         <v>270.8</v>
@@ -3976,45 +3724,36 @@
         <v>217.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>256.9</v>
+        <v>259.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="AC28" t="n">
-        <v>273.8</v>
+        <v>236.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>259.8</v>
+        <v>284</v>
       </c>
       <c r="AE28" t="n">
-        <v>230</v>
+        <v>255.4</v>
       </c>
       <c r="AF28" t="n">
-        <v>236.9</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="n">
-        <v>284</v>
+        <v>192.9</v>
       </c>
       <c r="AH28" t="n">
-        <v>255.4</v>
+        <v>129</v>
       </c>
       <c r="AI28" t="n">
-        <v>274</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>192.9</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>129</v>
-      </c>
-      <c r="AL28" t="n">
         <v>193.8</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B29" t="n">
         <v>9.1</v>
@@ -4092,45 +3831,36 @@
         <v>7.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>14.6</v>
+        <v>19.8</v>
       </c>
       <c r="AE29" t="n">
-        <v>8</v>
+        <v>12.4</v>
       </c>
       <c r="AF29" t="n">
-        <v>6.4</v>
+        <v>14.7</v>
       </c>
       <c r="AG29" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AH29" t="n">
-        <v>12.4</v>
+        <v>6.6</v>
       </c>
       <c r="AI29" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AL29" t="n">
         <v>17.1</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30" t="n">
         <v>119</v>
@@ -4208,45 +3938,36 @@
         <v>154.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>136.8</v>
+        <v>188</v>
       </c>
       <c r="AB30" t="n">
-        <v>125</v>
+        <v>172.9</v>
       </c>
       <c r="AC30" t="n">
-        <v>206.6</v>
+        <v>152.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>188</v>
+        <v>168.4</v>
       </c>
       <c r="AE30" t="n">
-        <v>172.9</v>
+        <v>142.8</v>
       </c>
       <c r="AF30" t="n">
-        <v>152.5</v>
+        <v>136.7</v>
       </c>
       <c r="AG30" t="n">
-        <v>168.4</v>
+        <v>111.6</v>
       </c>
       <c r="AH30" t="n">
-        <v>142.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AI30" t="n">
-        <v>136.7</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>111.6</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="AL30" t="n">
         <v>122.5</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:35">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -4333,36 +4054,27 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG31" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:35">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32" t="n">
         <v>224.1</v>
@@ -4440,45 +4152,36 @@
         <v>38.4</v>
       </c>
       <c r="AA32" t="n">
-        <v>178.9</v>
+        <v>26.3</v>
       </c>
       <c r="AB32" t="n">
-        <v>215.6</v>
+        <v>20.7</v>
       </c>
       <c r="AC32" t="n">
-        <v>207.4</v>
+        <v>17.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>26.3</v>
+        <v>33.4</v>
       </c>
       <c r="AE32" t="n">
-        <v>20.7</v>
+        <v>25.6</v>
       </c>
       <c r="AF32" t="n">
-        <v>17.8</v>
+        <v>32.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>33.4</v>
+        <v>12.9</v>
       </c>
       <c r="AH32" t="n">
-        <v>25.6</v>
+        <v>2.1</v>
       </c>
       <c r="AI32" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL32" t="n">
         <v>11.8</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:35">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B33" t="n">
         <v>138.1</v>
@@ -4556,45 +4259,36 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>126.8</v>
+        <v>124.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>170.3</v>
+        <v>112.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>176.2</v>
+        <v>114.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>124.5</v>
+        <v>132</v>
       </c>
       <c r="AE33" t="n">
-        <v>112.4</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="AF33" t="n">
-        <v>114.6</v>
+        <v>101.2</v>
       </c>
       <c r="AG33" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>87.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:35">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B34" t="n">
         <v>288.9</v>
@@ -4672,45 +4366,36 @@
         <v>3.7</v>
       </c>
       <c r="AA34" t="n">
-        <v>263.9</v>
+        <v>291.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>294.3</v>
+        <v>278.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>289.9</v>
+        <v>277.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>291.5</v>
+        <v>290.7</v>
       </c>
       <c r="AE34" t="n">
-        <v>278.4</v>
+        <v>272.1</v>
       </c>
       <c r="AF34" t="n">
-        <v>277.8</v>
+        <v>290.4</v>
       </c>
       <c r="AG34" t="n">
-        <v>290.7</v>
+        <v>9.1</v>
       </c>
       <c r="AH34" t="n">
-        <v>272.1</v>
+        <v>0.6</v>
       </c>
       <c r="AI34" t="n">
-        <v>290.4</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AL34" t="n">
         <v>9.300000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:35">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -4797,36 +4482,27 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AG35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
         <v>2.6</v>
       </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>2.6</v>
-      </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:35">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -4904,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
@@ -4913,36 +4589,27 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>6.6</v>
+        <v>10.8</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
         <v>10.5</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:35">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B37" t="n">
         <v>6.8</v>
@@ -5020,45 +4687,36 @@
         <v>5.8</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AB37" t="n">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="AC37" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>7.9</v>
+        <v>19.7</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AF37" t="n">
-        <v>1.5</v>
+        <v>29.3</v>
       </c>
       <c r="AG37" t="n">
-        <v>19.7</v>
+        <v>31.6</v>
       </c>
       <c r="AH37" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="AI37" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AL37" t="n">
         <v>30.4</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:35">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B38" t="n">
         <v>278.2</v>
@@ -5136,45 +4794,36 @@
         <v>266.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB38" t="n">
+        <v>254</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>298.8</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>293.3</v>
+      </c>
+      <c r="AF38" t="n">
         <v>286.6</v>
       </c>
-      <c r="AC38" t="n">
-        <v>285.8</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>274</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>254</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>243.3</v>
-      </c>
       <c r="AG38" t="n">
-        <v>298.8</v>
+        <v>268.1</v>
       </c>
       <c r="AH38" t="n">
-        <v>293.3</v>
+        <v>258</v>
       </c>
       <c r="AI38" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>258</v>
-      </c>
-      <c r="AL38" t="n">
         <v>263.7</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:35">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -5252,45 +4901,36 @@
         <v>35.6</v>
       </c>
       <c r="AA39" t="n">
-        <v>18.2</v>
+        <v>10.1</v>
       </c>
       <c r="AB39" t="n">
-        <v>22.3</v>
+        <v>0.1</v>
       </c>
       <c r="AC39" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>10.1</v>
+        <v>98.3</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.1</v>
+        <v>159.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>113.3</v>
       </c>
       <c r="AG39" t="n">
-        <v>98.3</v>
+        <v>2.2</v>
       </c>
       <c r="AH39" t="n">
-        <v>159.5</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:35">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -5368,45 +5008,36 @@
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>18.1</v>
+        <v>3.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD40" t="n">
-        <v>14.5</v>
+        <v>21.9</v>
       </c>
       <c r="AE40" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG40" t="n">
-        <v>21.9</v>
+        <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:35">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -5493,13 +5124,13 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AG41" t="n">
         <v>0.1</v>
@@ -5508,21 +5139,12 @@
         <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:35">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B42" t="n">
         <v>245</v>
@@ -5600,45 +5222,36 @@
         <v>267.6</v>
       </c>
       <c r="AA42" t="n">
-        <v>252.4</v>
+        <v>232.7</v>
       </c>
       <c r="AB42" t="n">
-        <v>271.8</v>
+        <v>228.7</v>
       </c>
       <c r="AC42" t="n">
-        <v>278.9</v>
+        <v>220.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>232.7</v>
+        <v>214.1</v>
       </c>
       <c r="AE42" t="n">
-        <v>228.7</v>
+        <v>210.8</v>
       </c>
       <c r="AF42" t="n">
-        <v>220.8</v>
+        <v>226.3</v>
       </c>
       <c r="AG42" t="n">
-        <v>214.1</v>
+        <v>143.3</v>
       </c>
       <c r="AH42" t="n">
-        <v>210.8</v>
+        <v>140.3</v>
       </c>
       <c r="AI42" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>143.3</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>140.3</v>
-      </c>
-      <c r="AL42" t="n">
         <v>153.6</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:35">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B43" t="n">
         <v>284.9</v>
@@ -5716,45 +5329,36 @@
         <v>264.3</v>
       </c>
       <c r="AA43" t="n">
-        <v>251.7</v>
+        <v>275.1</v>
       </c>
       <c r="AB43" t="n">
-        <v>279</v>
+        <v>269.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>270.9</v>
+        <v>266.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>275.1</v>
+        <v>268.7</v>
       </c>
       <c r="AE43" t="n">
-        <v>269.5</v>
+        <v>253</v>
       </c>
       <c r="AF43" t="n">
-        <v>266.4</v>
+        <v>225.7</v>
       </c>
       <c r="AG43" t="n">
-        <v>268.7</v>
+        <v>308.1</v>
       </c>
       <c r="AH43" t="n">
-        <v>253</v>
+        <v>279.3</v>
       </c>
       <c r="AI43" t="n">
-        <v>225.7</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>308.1</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="AL43" t="n">
         <v>277.2</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:35">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B44" t="n">
         <v>37.2</v>
@@ -5832,45 +5436,36 @@
         <v>0.3</v>
       </c>
       <c r="AA44" t="n">
-        <v>82.2</v>
+        <v>7.9</v>
       </c>
       <c r="AB44" t="n">
-        <v>83.5</v>
+        <v>1</v>
       </c>
       <c r="AC44" t="n">
-        <v>87.8</v>
+        <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>7.9</v>
+        <v>130.1</v>
       </c>
       <c r="AE44" t="n">
-        <v>1</v>
+        <v>82.7</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>130.7</v>
       </c>
       <c r="AG44" t="n">
-        <v>130.1</v>
+        <v>4.8</v>
       </c>
       <c r="AH44" t="n">
-        <v>82.7</v>
+        <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
         <v>4.6</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:35">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -5963,30 +5558,21 @@
         <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45" t="n">
         <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:35">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -6073,36 +5659,27 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AG46" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="AH46" t="n">
         <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:35">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -6189,36 +5766,27 @@
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE47" t="n">
         <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AH47" t="n">
         <v>0</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:35">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B48" t="n">
         <v>277.7</v>
@@ -6296,45 +5864,36 @@
         <v>19.1</v>
       </c>
       <c r="AA48" t="n">
-        <v>251.8</v>
+        <v>273.6</v>
       </c>
       <c r="AB48" t="n">
-        <v>271</v>
+        <v>258.6</v>
       </c>
       <c r="AC48" t="n">
-        <v>268.1</v>
+        <v>268.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>273.6</v>
+        <v>269</v>
       </c>
       <c r="AE48" t="n">
-        <v>258.6</v>
+        <v>262.8</v>
       </c>
       <c r="AF48" t="n">
-        <v>268.5</v>
+        <v>278</v>
       </c>
       <c r="AG48" t="n">
-        <v>269</v>
+        <v>4.3</v>
       </c>
       <c r="AH48" t="n">
-        <v>262.8</v>
+        <v>10.6</v>
       </c>
       <c r="AI48" t="n">
-        <v>278</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="AL48" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:35">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B49" t="n">
         <v>5.5</v>
@@ -6412,45 +5971,36 @@
         <v>6.4</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.3</v>
+        <v>7.1</v>
       </c>
       <c r="AB49" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD49" t="n">
-        <v>7.1</v>
+        <v>17.9</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="AF49" t="n">
-        <v>8.300000000000001</v>
+        <v>23.8</v>
       </c>
       <c r="AG49" t="n">
-        <v>17.9</v>
+        <v>21.9</v>
       </c>
       <c r="AH49" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
         <v>22.7</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:35">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B50" t="n">
         <v>276.6</v>
@@ -6528,45 +6078,36 @@
         <v>2.4</v>
       </c>
       <c r="AA50" t="n">
-        <v>280</v>
+        <v>269.4</v>
       </c>
       <c r="AB50" t="n">
-        <v>278.2</v>
+        <v>273.1</v>
       </c>
       <c r="AC50" t="n">
-        <v>274.1</v>
+        <v>260.2</v>
       </c>
       <c r="AD50" t="n">
-        <v>269.4</v>
+        <v>288.1</v>
       </c>
       <c r="AE50" t="n">
-        <v>273.1</v>
+        <v>293.9</v>
       </c>
       <c r="AF50" t="n">
-        <v>260.2</v>
+        <v>286.4</v>
       </c>
       <c r="AG50" t="n">
-        <v>288.1</v>
+        <v>286.2</v>
       </c>
       <c r="AH50" t="n">
-        <v>293.9</v>
+        <v>283.7</v>
       </c>
       <c r="AI50" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>283.7</v>
-      </c>
-      <c r="AL50" t="n">
         <v>286.1</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:35">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -6644,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AB51" t="n">
         <v>0</v>
@@ -6653,36 +6194,27 @@
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>6.7</v>
+        <v>44.6</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="AG51" t="n">
-        <v>44.6</v>
+        <v>10.2</v>
       </c>
       <c r="AH51" t="n">
-        <v>26.1</v>
+        <v>0</v>
       </c>
       <c r="AI51" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
         <v>11.2</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:35">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -6775,30 +6307,21 @@
         <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AH52" t="n">
         <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:35">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -6876,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB53" t="n">
         <v>0</v>
@@ -6885,36 +6408,27 @@
         <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="AE53" t="n">
         <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="AH53" t="n">
         <v>0</v>
       </c>
       <c r="AI53" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B54" t="n">
         <v>221</v>
@@ -6992,45 +6506,36 @@
         <v>257.8</v>
       </c>
       <c r="AA54" t="n">
-        <v>236.5</v>
+        <v>235.6</v>
       </c>
       <c r="AB54" t="n">
-        <v>248.6</v>
+        <v>235.4</v>
       </c>
       <c r="AC54" t="n">
-        <v>266.1</v>
+        <v>226.4</v>
       </c>
       <c r="AD54" t="n">
-        <v>235.6</v>
+        <v>169.2</v>
       </c>
       <c r="AE54" t="n">
-        <v>235.4</v>
+        <v>164.8</v>
       </c>
       <c r="AF54" t="n">
-        <v>226.4</v>
+        <v>179.8</v>
       </c>
       <c r="AG54" t="n">
-        <v>169.2</v>
+        <v>210.6</v>
       </c>
       <c r="AH54" t="n">
-        <v>164.8</v>
+        <v>148.2</v>
       </c>
       <c r="AI54" t="n">
-        <v>179.8</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>210.6</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="AL54" t="n">
         <v>177.8</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:35">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -7108,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB55" t="n">
         <v>0</v>
@@ -7117,36 +6622,27 @@
         <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.1</v>
+        <v>3.9</v>
       </c>
       <c r="AE55" t="n">
         <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG55" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="AH55" t="n">
         <v>0</v>
       </c>
       <c r="AI55" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:35">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -7224,45 +6720,36 @@
         <v>2.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AB56" t="n">
         <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>4.8</v>
+        <v>18.4</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AF56" t="n">
-        <v>0</v>
+        <v>39.4</v>
       </c>
       <c r="AG56" t="n">
-        <v>18.4</v>
+        <v>4.1</v>
       </c>
       <c r="AH56" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="AI56" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
         <v>3.4</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:35">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -7349,36 +6836,27 @@
         <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AG57" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AH57" t="n">
         <v>0</v>
       </c>
       <c r="AI57" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:35">
       <c r="A58" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -7465,36 +6943,27 @@
         <v>0</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE58" t="n">
         <v>0</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG58" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="AH58" t="n">
         <v>0</v>
       </c>
       <c r="AI58" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:35">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -7572,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AB59" t="n">
         <v>0</v>
@@ -7581,36 +7050,27 @@
         <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.3</v>
+        <v>8.9</v>
       </c>
       <c r="AE59" t="n">
         <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="AG59" t="n">
-        <v>8.9</v>
+        <v>5.8</v>
       </c>
       <c r="AH59" t="n">
         <v>0</v>
       </c>
       <c r="AI59" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL59" t="n">
         <v>8.4</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:35">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B60" t="n">
         <v>0.2</v>
@@ -7688,16 +7148,16 @@
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB60" t="n">
         <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE60" t="n">
         <v>0</v>
@@ -7706,27 +7166,18 @@
         <v>0</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH60" t="n">
         <v>0</v>
       </c>
       <c r="AI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL60" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:35">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B61" t="n">
         <v>4.1</v>
@@ -7804,45 +7255,36 @@
         <v>4.6</v>
       </c>
       <c r="AA61" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AC61" t="n">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="AD61" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.3</v>
+        <v>10.4</v>
       </c>
       <c r="AG61" t="n">
-        <v>5.9</v>
+        <v>17.5</v>
       </c>
       <c r="AH61" t="n">
         <v>0</v>
       </c>
       <c r="AI61" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL61" t="n">
         <v>16.2</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:35">
       <c r="A62" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B62" t="n">
         <v>3.7</v>
@@ -7920,45 +7362,36 @@
         <v>1.1</v>
       </c>
       <c r="AA62" t="n">
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="AB62" t="n">
-        <v>7.3</v>
+        <v>10.7</v>
       </c>
       <c r="AC62" t="n">
-        <v>6.1</v>
+        <v>12.9</v>
       </c>
       <c r="AD62" t="n">
-        <v>17.7</v>
+        <v>10.2</v>
       </c>
       <c r="AE62" t="n">
-        <v>10.7</v>
+        <v>0.4</v>
       </c>
       <c r="AF62" t="n">
-        <v>12.9</v>
+        <v>10.8</v>
       </c>
       <c r="AG62" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AI62" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AL62" t="n">
         <v>12.2</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:35">
       <c r="A63" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B63" t="n">
         <v>256.7</v>
@@ -8036,45 +7469,36 @@
         <v>262.4</v>
       </c>
       <c r="AA63" t="n">
-        <v>248.2</v>
+        <v>256.4</v>
       </c>
       <c r="AB63" t="n">
-        <v>251</v>
+        <v>244.8</v>
       </c>
       <c r="AC63" t="n">
-        <v>253.7</v>
+        <v>234.8</v>
       </c>
       <c r="AD63" t="n">
-        <v>256.4</v>
+        <v>257.9</v>
       </c>
       <c r="AE63" t="n">
-        <v>244.8</v>
+        <v>265.6</v>
       </c>
       <c r="AF63" t="n">
-        <v>234.8</v>
+        <v>254.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>257.9</v>
+        <v>19.3</v>
       </c>
       <c r="AH63" t="n">
-        <v>265.6</v>
+        <v>5.3</v>
       </c>
       <c r="AI63" t="n">
-        <v>254.5</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AL63" t="n">
         <v>23.2</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:35">
       <c r="A64" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B64" t="n">
         <v>104.2</v>
@@ -8152,45 +7576,36 @@
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>154.8</v>
+        <v>286.8</v>
       </c>
       <c r="AB64" t="n">
-        <v>206.7</v>
+        <v>284.8</v>
       </c>
       <c r="AC64" t="n">
-        <v>170.3</v>
+        <v>279.8</v>
       </c>
       <c r="AD64" t="n">
-        <v>286.8</v>
+        <v>36.4</v>
       </c>
       <c r="AE64" t="n">
-        <v>284.8</v>
+        <v>42.1</v>
       </c>
       <c r="AF64" t="n">
-        <v>279.8</v>
+        <v>32.3</v>
       </c>
       <c r="AG64" t="n">
-        <v>36.4</v>
+        <v>4.6</v>
       </c>
       <c r="AH64" t="n">
-        <v>42.1</v>
+        <v>0</v>
       </c>
       <c r="AI64" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:35">
       <c r="A65" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -8268,45 +7683,36 @@
         <v>13.2</v>
       </c>
       <c r="AA65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB65" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
       <c r="AC65" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="AE65" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="AG65" t="n">
-        <v>20.8</v>
+        <v>3</v>
       </c>
       <c r="AH65" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="AI65" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL65" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:35">
       <c r="A66" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B66" t="n">
         <v>275.1</v>
@@ -8384,45 +7790,36 @@
         <v>268.5</v>
       </c>
       <c r="AA66" t="n">
-        <v>272.1</v>
+        <v>271.2</v>
       </c>
       <c r="AB66" t="n">
-        <v>279</v>
+        <v>261.9</v>
       </c>
       <c r="AC66" t="n">
-        <v>276.2</v>
+        <v>263.1</v>
       </c>
       <c r="AD66" t="n">
-        <v>271.2</v>
+        <v>265.2</v>
       </c>
       <c r="AE66" t="n">
-        <v>261.9</v>
+        <v>272.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>263.1</v>
+        <v>279.8</v>
       </c>
       <c r="AG66" t="n">
-        <v>265.2</v>
+        <v>287.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>272.5</v>
+        <v>263.9</v>
       </c>
       <c r="AI66" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>287.5</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>263.9</v>
-      </c>
-      <c r="AL66" t="n">
         <v>295.5</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:35">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B67" t="n">
         <v>181.3</v>
@@ -8500,45 +7897,36 @@
         <v>130.8</v>
       </c>
       <c r="AA67" t="n">
-        <v>163.1</v>
+        <v>125.4</v>
       </c>
       <c r="AB67" t="n">
-        <v>151</v>
+        <v>118.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>249.9</v>
+        <v>109.5</v>
       </c>
       <c r="AD67" t="n">
-        <v>125.4</v>
+        <v>151.4</v>
       </c>
       <c r="AE67" t="n">
-        <v>118.5</v>
+        <v>148.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>109.5</v>
+        <v>173.7</v>
       </c>
       <c r="AG67" t="n">
-        <v>151.4</v>
+        <v>107.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>148.5</v>
+        <v>101.4</v>
       </c>
       <c r="AI67" t="n">
-        <v>173.7</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="AL67" t="n">
         <v>124.5</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:35">
       <c r="A68" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B68" t="n">
         <v>24.5</v>
@@ -8616,45 +8004,36 @@
         <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>60.4</v>
+        <v>109.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>75.8</v>
+        <v>79.2</v>
       </c>
       <c r="AC68" t="n">
-        <v>114.7</v>
+        <v>93.3</v>
       </c>
       <c r="AD68" t="n">
-        <v>109.5</v>
+        <v>103.8</v>
       </c>
       <c r="AE68" t="n">
-        <v>79.2</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AF68" t="n">
-        <v>93.3</v>
+        <v>126.7</v>
       </c>
       <c r="AG68" t="n">
-        <v>103.8</v>
+        <v>0.7</v>
       </c>
       <c r="AH68" t="n">
-        <v>92.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="AI68" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL68" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:35">
       <c r="A69" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B69" t="n">
         <v>262.3</v>
@@ -8732,45 +8111,36 @@
         <v>275.4</v>
       </c>
       <c r="AA69" t="n">
-        <v>269.5</v>
+        <v>271.2</v>
       </c>
       <c r="AB69" t="n">
-        <v>273.4</v>
+        <v>275.9</v>
       </c>
       <c r="AC69" t="n">
-        <v>276.4</v>
+        <v>264.2</v>
       </c>
       <c r="AD69" t="n">
-        <v>271.2</v>
+        <v>250.7</v>
       </c>
       <c r="AE69" t="n">
-        <v>275.9</v>
+        <v>246.3</v>
       </c>
       <c r="AF69" t="n">
-        <v>264.2</v>
+        <v>247</v>
       </c>
       <c r="AG69" t="n">
-        <v>250.7</v>
+        <v>0.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>246.3</v>
+        <v>0</v>
       </c>
       <c r="AI69" t="n">
-        <v>247</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL69" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:35">
       <c r="A70" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -8851,42 +8221,33 @@
         <v>0</v>
       </c>
       <c r="AB70" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC70" t="n">
         <v>0</v>
       </c>
       <c r="AD70" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE70" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF70" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AG70" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="AH70" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AI70" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL70" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:35">
       <c r="A71" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B71" t="n">
         <v>6.4</v>
@@ -8964,45 +8325,36 @@
         <v>17.1</v>
       </c>
       <c r="AA71" t="n">
-        <v>37.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB71" t="n">
-        <v>39.1</v>
+        <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>62.7</v>
+        <v>4.4</v>
       </c>
       <c r="AD71" t="n">
-        <v>5.6</v>
+        <v>17.9</v>
       </c>
       <c r="AE71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF71" t="n">
-        <v>4.4</v>
+        <v>20.4</v>
       </c>
       <c r="AG71" t="n">
-        <v>17.9</v>
+        <v>6.6</v>
       </c>
       <c r="AH71" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI71" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL71" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:35">
       <c r="A72" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B72" t="n">
         <v>6.2</v>
@@ -9080,45 +8432,36 @@
         <v>6.9</v>
       </c>
       <c r="AA72" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AB72" t="n">
-        <v>12</v>
+        <v>0.1</v>
       </c>
       <c r="AC72" t="n">
-        <v>15.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD72" t="n">
-        <v>7.8</v>
+        <v>22.9</v>
       </c>
       <c r="AE72" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AF72" t="n">
-        <v>3.3</v>
+        <v>17.3</v>
       </c>
       <c r="AG72" t="n">
-        <v>22.9</v>
+        <v>13.4</v>
       </c>
       <c r="AH72" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AI72" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" t="n">
         <v>13.9</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:35">
       <c r="A73" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B73" t="n">
         <v>10.3</v>
@@ -9196,45 +8539,36 @@
         <v>13.4</v>
       </c>
       <c r="AA73" t="n">
-        <v>4.2</v>
+        <v>13.8</v>
       </c>
       <c r="AB73" t="n">
-        <v>11.8</v>
+        <v>6</v>
       </c>
       <c r="AC73" t="n">
-        <v>19.8</v>
+        <v>9</v>
       </c>
       <c r="AD73" t="n">
-        <v>13.8</v>
+        <v>15.8</v>
       </c>
       <c r="AE73" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="AF73" t="n">
-        <v>9</v>
+        <v>20.6</v>
       </c>
       <c r="AG73" t="n">
-        <v>15.8</v>
+        <v>21.2</v>
       </c>
       <c r="AH73" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AI73" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AL73" t="n">
         <v>18.5</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:35">
       <c r="A74" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B74" t="n">
         <v>10.5</v>
@@ -9312,45 +8646,36 @@
         <v>9.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="AB74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC74" t="n">
         <v>13.6</v>
       </c>
-      <c r="AC74" t="n">
-        <v>16.1</v>
-      </c>
       <c r="AD74" t="n">
-        <v>22.9</v>
+        <v>11.8</v>
       </c>
       <c r="AE74" t="n">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="AF74" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="AG74" t="n">
-        <v>11.8</v>
+        <v>14.6</v>
       </c>
       <c r="AH74" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AI74" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AL74" t="n">
         <v>13.3</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:35">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -9428,45 +8753,36 @@
         <v>0</v>
       </c>
       <c r="AA75" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB75" t="n">
         <v>0</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="AE75" t="n">
         <v>0</v>
       </c>
       <c r="AF75" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AG75" t="n">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="AH75" t="n">
         <v>0</v>
       </c>
       <c r="AI75" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL75" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:35">
       <c r="A76" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B76" t="n">
         <v>257</v>
@@ -9544,45 +8860,36 @@
         <v>6.2</v>
       </c>
       <c r="AA76" t="n">
-        <v>278.3</v>
+        <v>183</v>
       </c>
       <c r="AB76" t="n">
-        <v>280.5</v>
+        <v>188.4</v>
       </c>
       <c r="AC76" t="n">
-        <v>278.7</v>
+        <v>84.7</v>
       </c>
       <c r="AD76" t="n">
-        <v>183</v>
+        <v>202.4</v>
       </c>
       <c r="AE76" t="n">
-        <v>188.4</v>
+        <v>233.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>84.7</v>
+        <v>191.6</v>
       </c>
       <c r="AG76" t="n">
-        <v>202.4</v>
+        <v>153.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>233.5</v>
+        <v>12.8</v>
       </c>
       <c r="AI76" t="n">
-        <v>191.6</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="AL76" t="n">
         <v>253.2</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:35">
       <c r="A77" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B77" t="n">
         <v>270</v>
@@ -9660,45 +8967,36 @@
         <v>15.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>255.2</v>
+        <v>129.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>264.1</v>
+        <v>118.8</v>
       </c>
       <c r="AC77" t="n">
-        <v>275.8</v>
+        <v>104.6</v>
       </c>
       <c r="AD77" t="n">
-        <v>129.5</v>
+        <v>228.1</v>
       </c>
       <c r="AE77" t="n">
-        <v>118.8</v>
+        <v>260.1</v>
       </c>
       <c r="AF77" t="n">
-        <v>104.6</v>
+        <v>223.9</v>
       </c>
       <c r="AG77" t="n">
-        <v>228.1</v>
+        <v>5</v>
       </c>
       <c r="AH77" t="n">
-        <v>260.1</v>
+        <v>0</v>
       </c>
       <c r="AI77" t="n">
-        <v>223.9</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL77" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:35">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B78" t="n">
         <v>253.9</v>
@@ -9776,45 +9074,36 @@
         <v>0</v>
       </c>
       <c r="AA78" t="n">
-        <v>211.8</v>
+        <v>248.8</v>
       </c>
       <c r="AB78" t="n">
-        <v>247.1</v>
+        <v>253.1</v>
       </c>
       <c r="AC78" t="n">
-        <v>257.7</v>
+        <v>241</v>
       </c>
       <c r="AD78" t="n">
-        <v>248.8</v>
+        <v>280.8</v>
       </c>
       <c r="AE78" t="n">
-        <v>253.1</v>
+        <v>288.6</v>
       </c>
       <c r="AF78" t="n">
-        <v>241</v>
+        <v>278.5</v>
       </c>
       <c r="AG78" t="n">
-        <v>280.8</v>
+        <v>107.9</v>
       </c>
       <c r="AH78" t="n">
-        <v>288.6</v>
+        <v>81.8</v>
       </c>
       <c r="AI78" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>107.9</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="AL78" t="n">
         <v>109.7</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:35">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -9892,45 +9181,36 @@
         <v>0</v>
       </c>
       <c r="AA79" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>5.4</v>
+        <v>15.1</v>
       </c>
       <c r="AC79" t="n">
-        <v>2.7</v>
+        <v>20.4</v>
       </c>
       <c r="AD79" t="n">
-        <v>25.5</v>
+        <v>12.4</v>
       </c>
       <c r="AE79" t="n">
-        <v>15.1</v>
+        <v>0.4</v>
       </c>
       <c r="AF79" t="n">
-        <v>20.4</v>
+        <v>9.5</v>
       </c>
       <c r="AG79" t="n">
-        <v>12.4</v>
+        <v>18.4</v>
       </c>
       <c r="AH79" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AL79" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:35">
       <c r="A80" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -10017,36 +9297,27 @@
         <v>0</v>
       </c>
       <c r="AD80" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AE80" t="n">
         <v>0</v>
       </c>
       <c r="AF80" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG80" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="AH80" t="n">
         <v>0</v>
       </c>
       <c r="AI80" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL80" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:35">
       <c r="A81" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -10124,13 +9395,13 @@
         <v>0</v>
       </c>
       <c r="AA81" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AC81" t="n">
-        <v>4.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD81" t="n">
         <v>5.4</v>
@@ -10139,30 +9410,21 @@
         <v>0</v>
       </c>
       <c r="AF81" t="n">
-        <v>0.1</v>
+        <v>6.7</v>
       </c>
       <c r="AG81" t="n">
-        <v>5.4</v>
+        <v>2.4</v>
       </c>
       <c r="AH81" t="n">
         <v>0</v>
       </c>
       <c r="AI81" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AJ81" t="n">
         <v>2.4</v>
       </c>
-      <c r="AK81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>2.4</v>
-      </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:35">
       <c r="A82" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B82" t="n">
         <v>265</v>
@@ -10240,45 +9502,36 @@
         <v>63.1</v>
       </c>
       <c r="AA82" t="n">
-        <v>268.5</v>
+        <v>249.5</v>
       </c>
       <c r="AB82" t="n">
-        <v>270</v>
+        <v>230.5</v>
       </c>
       <c r="AC82" t="n">
-        <v>272.8</v>
+        <v>233.6</v>
       </c>
       <c r="AD82" t="n">
-        <v>249.5</v>
+        <v>20.1</v>
       </c>
       <c r="AE82" t="n">
-        <v>230.5</v>
+        <v>0</v>
       </c>
       <c r="AF82" t="n">
-        <v>233.6</v>
+        <v>15.4</v>
       </c>
       <c r="AG82" t="n">
-        <v>20.1</v>
+        <v>215.9</v>
       </c>
       <c r="AH82" t="n">
-        <v>0</v>
+        <v>264.8</v>
       </c>
       <c r="AI82" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>264.8</v>
-      </c>
-      <c r="AL82" t="n">
         <v>260.2</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:35">
       <c r="A83" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B83" t="n">
         <v>176.1</v>
@@ -10356,45 +9609,36 @@
         <v>0</v>
       </c>
       <c r="AA83" t="n">
-        <v>222.7</v>
+        <v>231.8</v>
       </c>
       <c r="AB83" t="n">
+        <v>234.8</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>231.1</v>
+      </c>
+      <c r="AE83" t="n">
         <v>213.7</v>
       </c>
-      <c r="AC83" t="n">
-        <v>227.6</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>234.8</v>
-      </c>
       <c r="AF83" t="n">
-        <v>214.2</v>
+        <v>224.8</v>
       </c>
       <c r="AG83" t="n">
-        <v>231.1</v>
+        <v>193.6</v>
       </c>
       <c r="AH83" t="n">
-        <v>213.7</v>
+        <v>185.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>193.6</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="AL83" t="n">
         <v>213.4</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:35">
       <c r="A84" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B84" t="n">
         <v>2.9</v>
@@ -10472,45 +9716,36 @@
         <v>7.8</v>
       </c>
       <c r="AA84" t="n">
-        <v>13.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>95.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC84" t="n">
-        <v>81.40000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="AD84" t="n">
-        <v>7.5</v>
+        <v>24.2</v>
       </c>
       <c r="AE84" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AF84" t="n">
-        <v>3.3</v>
+        <v>24.7</v>
       </c>
       <c r="AG84" t="n">
-        <v>24.2</v>
+        <v>27.3</v>
       </c>
       <c r="AH84" t="n">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="AI84" t="n">
         <v>24.7</v>
       </c>
-      <c r="AJ84" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>24.7</v>
-      </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:35">
       <c r="A85" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B85" t="n">
         <v>266.8</v>
@@ -10588,45 +9823,36 @@
         <v>263</v>
       </c>
       <c r="AA85" t="n">
-        <v>275.7</v>
+        <v>268.3</v>
       </c>
       <c r="AB85" t="n">
-        <v>278.6</v>
+        <v>268.1</v>
       </c>
       <c r="AC85" t="n">
-        <v>273.6</v>
+        <v>251.9</v>
       </c>
       <c r="AD85" t="n">
-        <v>268.3</v>
+        <v>265</v>
       </c>
       <c r="AE85" t="n">
-        <v>268.1</v>
+        <v>273.7</v>
       </c>
       <c r="AF85" t="n">
-        <v>251.9</v>
+        <v>266.2</v>
       </c>
       <c r="AG85" t="n">
-        <v>265</v>
+        <v>76.2</v>
       </c>
       <c r="AH85" t="n">
-        <v>273.7</v>
+        <v>217</v>
       </c>
       <c r="AI85" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>217</v>
-      </c>
-      <c r="AL85" t="n">
         <v>139.7</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:35">
       <c r="A86" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B86" t="n">
         <v>16.9</v>
@@ -10704,45 +9930,36 @@
         <v>6.5</v>
       </c>
       <c r="AA86" t="n">
-        <v>0.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB86" t="n">
-        <v>16.1</v>
+        <v>1</v>
       </c>
       <c r="AC86" t="n">
-        <v>19.9</v>
+        <v>13.3</v>
       </c>
       <c r="AD86" t="n">
-        <v>23.1</v>
+        <v>34.2</v>
       </c>
       <c r="AE86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF86" t="n">
-        <v>13.3</v>
+        <v>28.4</v>
       </c>
       <c r="AG86" t="n">
-        <v>34.2</v>
+        <v>27.4</v>
       </c>
       <c r="AH86" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AI86" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AL86" t="n">
         <v>27.6</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:35">
       <c r="A87" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B87" t="n">
         <v>38.9</v>
@@ -10820,45 +10037,36 @@
         <v>35.2</v>
       </c>
       <c r="AA87" t="n">
-        <v>14.9</v>
+        <v>78.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>57.3</v>
+        <v>45.9</v>
       </c>
       <c r="AC87" t="n">
-        <v>66.59999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="AD87" t="n">
-        <v>78.5</v>
+        <v>50.6</v>
       </c>
       <c r="AE87" t="n">
-        <v>45.9</v>
+        <v>39.8</v>
       </c>
       <c r="AF87" t="n">
-        <v>64.5</v>
+        <v>61.9</v>
       </c>
       <c r="AG87" t="n">
-        <v>50.6</v>
+        <v>23.7</v>
       </c>
       <c r="AH87" t="n">
-        <v>39.8</v>
+        <v>0</v>
       </c>
       <c r="AI87" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL87" t="n">
         <v>19.8</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:35">
       <c r="A88" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B88" t="n">
         <v>1.1</v>
@@ -10936,45 +10144,36 @@
         <v>0</v>
       </c>
       <c r="AA88" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="AB88" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AC88" t="n">
-        <v>5.1</v>
+        <v>0.1</v>
       </c>
       <c r="AD88" t="n">
-        <v>11.2</v>
+        <v>8.1</v>
       </c>
       <c r="AE88" t="n">
         <v>0</v>
       </c>
       <c r="AF88" t="n">
-        <v>0.1</v>
+        <v>11</v>
       </c>
       <c r="AG88" t="n">
-        <v>8.1</v>
+        <v>23.3</v>
       </c>
       <c r="AH88" t="n">
         <v>0</v>
       </c>
       <c r="AI88" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL88" t="n">
         <v>20.6</v>
       </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:35">
       <c r="A89" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B89" t="n">
         <v>1.3</v>
@@ -11052,45 +10251,36 @@
         <v>2.3</v>
       </c>
       <c r="AA89" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB89" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AC89" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AD89" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="AE89" t="n">
         <v>0</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AG89" t="n">
-        <v>2.6</v>
+        <v>17.8</v>
       </c>
       <c r="AH89" t="n">
         <v>0</v>
       </c>
       <c r="AI89" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL89" t="n">
         <v>14.4</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:35">
       <c r="A90" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B90" t="n">
         <v>4.6</v>
@@ -11168,45 +10358,36 @@
         <v>0</v>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="AB90" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AC90" t="n">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD90" t="n">
-        <v>13.7</v>
+        <v>27.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF90" t="n">
-        <v>1.7</v>
+        <v>25.7</v>
       </c>
       <c r="AG90" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="AH90" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI90" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL90" t="n">
         <v>22.6</v>
       </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:35">
       <c r="A91" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B91" t="n">
         <v>19.3</v>
@@ -11284,45 +10465,36 @@
         <v>7.1</v>
       </c>
       <c r="AA91" t="n">
-        <v>0</v>
+        <v>32.8</v>
       </c>
       <c r="AB91" t="n">
-        <v>15.9</v>
+        <v>4.1</v>
       </c>
       <c r="AC91" t="n">
-        <v>16.6</v>
+        <v>20.7</v>
       </c>
       <c r="AD91" t="n">
-        <v>32.8</v>
+        <v>20.9</v>
       </c>
       <c r="AE91" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="AF91" t="n">
-        <v>20.7</v>
+        <v>25</v>
       </c>
       <c r="AG91" t="n">
-        <v>20.9</v>
+        <v>34.2</v>
       </c>
       <c r="AH91" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="AI91" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ91" t="n">
         <v>34.2</v>
       </c>
-      <c r="AK91" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>34.2</v>
-      </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:35">
       <c r="A92" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B92" t="n">
         <v>71.2</v>
@@ -11400,45 +10572,36 @@
         <v>23.6</v>
       </c>
       <c r="AA92" t="n">
-        <v>76.3</v>
+        <v>28.7</v>
       </c>
       <c r="AB92" t="n">
-        <v>75.7</v>
+        <v>10.6</v>
       </c>
       <c r="AC92" t="n">
-        <v>93.90000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="AD92" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="AE92" t="n">
-        <v>10.6</v>
+        <v>4.7</v>
       </c>
       <c r="AF92" t="n">
-        <v>25.3</v>
+        <v>30.1</v>
       </c>
       <c r="AG92" t="n">
-        <v>28.1</v>
+        <v>42.6</v>
       </c>
       <c r="AH92" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="AI92" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL92" t="n">
         <v>35.6</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:35">
       <c r="A93" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B93" t="n">
         <v>280.8</v>
@@ -11516,45 +10679,36 @@
         <v>11.4</v>
       </c>
       <c r="AA93" t="n">
-        <v>287.7</v>
+        <v>274.2</v>
       </c>
       <c r="AB93" t="n">
-        <v>285.2</v>
+        <v>276.2</v>
       </c>
       <c r="AC93" t="n">
-        <v>288.3</v>
+        <v>246.7</v>
       </c>
       <c r="AD93" t="n">
-        <v>274.2</v>
+        <v>268.2</v>
       </c>
       <c r="AE93" t="n">
-        <v>276.2</v>
+        <v>258.6</v>
       </c>
       <c r="AF93" t="n">
-        <v>246.7</v>
+        <v>278.2</v>
       </c>
       <c r="AG93" t="n">
-        <v>268.2</v>
+        <v>225.6</v>
       </c>
       <c r="AH93" t="n">
-        <v>258.6</v>
+        <v>206</v>
       </c>
       <c r="AI93" t="n">
-        <v>278.2</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>225.6</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>206</v>
-      </c>
-      <c r="AL93" t="n">
         <v>247.9</v>
       </c>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:35">
       <c r="A94" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B94" t="n">
         <v>3.6</v>
@@ -11632,45 +10786,36 @@
         <v>0</v>
       </c>
       <c r="AA94" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AB94" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AC94" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>7.3</v>
+        <v>53.3</v>
       </c>
       <c r="AE94" t="n">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="AF94" t="n">
-        <v>0.5</v>
+        <v>50.5</v>
       </c>
       <c r="AG94" t="n">
-        <v>53.3</v>
+        <v>38.2</v>
       </c>
       <c r="AH94" t="n">
-        <v>46.9</v>
+        <v>0</v>
       </c>
       <c r="AI94" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL94" t="n">
         <v>35.3</v>
       </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:35">
       <c r="A95" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B95" t="n">
         <v>280.5</v>
@@ -11748,45 +10893,36 @@
         <v>270.6</v>
       </c>
       <c r="AA95" t="n">
-        <v>276.7</v>
+        <v>268.5</v>
       </c>
       <c r="AB95" t="n">
-        <v>286.4</v>
+        <v>270.7</v>
       </c>
       <c r="AC95" t="n">
-        <v>283.1</v>
+        <v>202.6</v>
       </c>
       <c r="AD95" t="n">
-        <v>268.5</v>
+        <v>268.8</v>
       </c>
       <c r="AE95" t="n">
-        <v>270.7</v>
+        <v>286.8</v>
       </c>
       <c r="AF95" t="n">
-        <v>202.6</v>
+        <v>233.3</v>
       </c>
       <c r="AG95" t="n">
-        <v>268.8</v>
+        <v>41.7</v>
       </c>
       <c r="AH95" t="n">
-        <v>286.8</v>
+        <v>0</v>
       </c>
       <c r="AI95" t="n">
-        <v>233.3</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL95" t="n">
         <v>38.9</v>
       </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:35">
       <c r="A96" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B96" t="n">
         <v>8.1</v>
@@ -11864,45 +11000,36 @@
         <v>0</v>
       </c>
       <c r="AA96" t="n">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="AB96" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AC96" t="n">
-        <v>9.4</v>
+        <v>2.4</v>
       </c>
       <c r="AD96" t="n">
-        <v>10.3</v>
+        <v>21.8</v>
       </c>
       <c r="AE96" t="n">
         <v>0</v>
       </c>
       <c r="AF96" t="n">
-        <v>2.4</v>
+        <v>26.8</v>
       </c>
       <c r="AG96" t="n">
-        <v>21.8</v>
+        <v>51.3</v>
       </c>
       <c r="AH96" t="n">
         <v>0</v>
       </c>
       <c r="AI96" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL96" t="n">
         <v>40.5</v>
       </c>
     </row>
-    <row r="97" spans="1:38">
+    <row r="97" spans="1:35">
       <c r="A97" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B97" t="n">
         <v>20.4</v>
@@ -11980,39 +11107,30 @@
         <v>8.5</v>
       </c>
       <c r="AA97" t="n">
-        <v>2.8</v>
+        <v>25.6</v>
       </c>
       <c r="AB97" t="n">
-        <v>22.5</v>
+        <v>4.5</v>
       </c>
       <c r="AC97" t="n">
-        <v>28.3</v>
+        <v>18.9</v>
       </c>
       <c r="AD97" t="n">
-        <v>25.6</v>
+        <v>23.8</v>
       </c>
       <c r="AE97" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="AF97" t="n">
-        <v>18.9</v>
+        <v>23</v>
       </c>
       <c r="AG97" t="n">
-        <v>23.8</v>
+        <v>22.6</v>
       </c>
       <c r="AH97" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="AI97" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AL97" t="n">
         <v>21.9</v>
       </c>
     </row>
